--- a/lotarea 2020-04/output/LotArea_Summary_Iregular_Miscategorized_As_Regular.xlsx
+++ b/lotarea 2020-04/output/LotArea_Summary_Iregular_Miscategorized_As_Regular.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\DCP\db-pluto-research\lotarea 2020-04\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E406C43E-FFDE-420F-B9CA-A687066E9D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF7012C-9125-4D92-819B-9614E118E6A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4208" yWindow="3398" windowWidth="16200" windowHeight="9397"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="16199" windowHeight="9397" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="3" r:id="rId1"/>
-    <sheet name="borough" sheetId="2" r:id="rId2"/>
-    <sheet name="landuse" sheetId="1" r:id="rId3"/>
+    <sheet name="summary" sheetId="1" r:id="rId1"/>
+    <sheet name="boro" sheetId="2" r:id="rId2"/>
+    <sheet name="landuse" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,21 +24,39 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
+    <t>lotarea_sum</t>
+  </si>
+  <si>
+    <t>replacement_sum</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>Borough</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>QN</t>
+  </si>
+  <si>
     <t>LandUse</t>
   </si>
   <si>
     <t>def</t>
   </si>
   <si>
-    <t>lotarea_sum</t>
-  </si>
-  <si>
-    <t>replacement_sum</t>
-  </si>
-  <si>
-    <t>difference</t>
-  </si>
-  <si>
     <t>Vacant Land</t>
   </si>
   <si>
@@ -54,43 +72,25 @@
     <t>One and Two Family Buildings</t>
   </si>
   <si>
+    <t>Multi-Family Elevator Buildings</t>
+  </si>
+  <si>
+    <t>Mixed Residential and Commercial</t>
+  </si>
+  <si>
     <t>Industrial and Manufacturing</t>
   </si>
   <si>
-    <t>Mixed Residential and Commercial</t>
+    <t>Parking Facilities</t>
   </si>
   <si>
     <t>Commercial and Office</t>
   </si>
   <si>
-    <t>Parking Facilities</t>
-  </si>
-  <si>
-    <t>Multi-Family Elevator Buildings</t>
-  </si>
-  <si>
     <t>Public Facilities and Institutions</t>
   </si>
   <si>
     <t>Open Space and Outdoor Recreation</t>
-  </si>
-  <si>
-    <t>Borough</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>BX</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>QN</t>
   </si>
 </sst>
 </file>
@@ -933,37 +933,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>177169688</v>
+        <v>163349455</v>
       </c>
       <c r="B2">
-        <v>166673822</v>
+        <v>158619283</v>
       </c>
       <c r="C2">
-        <v>10495866</v>
+        <v>4730172</v>
       </c>
     </row>
   </sheetData>
@@ -983,92 +981,92 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>19663189</v>
+        <v>29763392</v>
       </c>
       <c r="C2">
-        <v>15250147</v>
+        <v>28182252</v>
       </c>
       <c r="D2">
-        <v>4413042</v>
+        <v>1581140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>23697352</v>
+        <v>22926391</v>
       </c>
       <c r="C3">
-        <v>21532641</v>
+        <v>21511683</v>
       </c>
       <c r="D3">
-        <v>2164711</v>
+        <v>1414708</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>30236754</v>
+        <v>17798081</v>
       </c>
       <c r="C4">
-        <v>28308773</v>
+        <v>16432817</v>
       </c>
       <c r="D4">
-        <v>1927981</v>
+        <v>1365264</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>21799488</v>
+        <v>13587755</v>
       </c>
       <c r="C5">
-        <v>20057451</v>
+        <v>13119958</v>
       </c>
       <c r="D5">
-        <v>1742037</v>
+        <v>467797</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>81772905</v>
+        <v>79273836</v>
       </c>
       <c r="C6">
-        <v>81524810</v>
+        <v>79372573</v>
       </c>
       <c r="D6">
-        <v>248095</v>
+        <v>-98737</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7">
         <f>SUM(D2:D6)</f>
-        <v>10495866</v>
+        <v>4730172</v>
       </c>
     </row>
   </sheetData>
@@ -1080,32 +1078,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1113,16 +1111,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>19827730</v>
+        <v>18421440</v>
       </c>
       <c r="D2">
-        <v>5147687</v>
+        <v>4487831</v>
       </c>
       <c r="E2">
-        <v>14680043</v>
+        <v>13933609</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1130,30 +1128,30 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>71574803</v>
+        <v>61649490</v>
       </c>
       <c r="D3">
-        <v>63542228</v>
+        <v>57810811</v>
       </c>
       <c r="E3">
-        <v>8032575</v>
+        <v>3838679</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>6833982</v>
+        <v>3948429</v>
       </c>
       <c r="D4">
-        <v>3204918</v>
+        <v>1916550</v>
       </c>
       <c r="E4">
-        <v>3629064</v>
+        <v>2031879</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1161,16 +1159,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>10315334</v>
+        <v>10461073</v>
       </c>
       <c r="D5">
-        <v>9600931</v>
+        <v>9748114</v>
       </c>
       <c r="E5">
-        <v>714403</v>
+        <v>712959</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1178,33 +1176,33 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>3832394</v>
+        <v>3723184</v>
       </c>
       <c r="D6">
-        <v>3598882</v>
+        <v>3498858</v>
       </c>
       <c r="E6">
-        <v>233512</v>
+        <v>224326</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>1857582</v>
+        <v>7670067</v>
       </c>
       <c r="D7">
-        <v>1818215</v>
+        <v>7567230</v>
       </c>
       <c r="E7">
-        <v>39367</v>
+        <v>102837</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1212,33 +1210,33 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>3880530</v>
+        <v>4882329</v>
       </c>
       <c r="D8">
-        <v>3844679</v>
+        <v>4849565</v>
       </c>
       <c r="E8">
-        <v>35851</v>
+        <v>32764</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>3437460</v>
+        <v>1775769</v>
       </c>
       <c r="D9">
-        <v>3419895</v>
+        <v>1752958</v>
       </c>
       <c r="E9">
-        <v>17565</v>
+        <v>22811</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1246,33 +1244,33 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>1602393</v>
+        <v>1409762</v>
       </c>
       <c r="D10">
-        <v>1595008</v>
+        <v>1407242</v>
       </c>
       <c r="E10">
-        <v>7385</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>7001929</v>
+        <v>3351808</v>
       </c>
       <c r="D11">
-        <v>7019040</v>
+        <v>3392685</v>
       </c>
       <c r="E11">
-        <v>-17111</v>
+        <v>-40877</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1280,16 +1278,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>12620915</v>
+        <v>12827649</v>
       </c>
       <c r="D12">
-        <v>12951204</v>
+        <v>13154652</v>
       </c>
       <c r="E12">
-        <v>-330289</v>
+        <v>-327003</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1297,22 +1295,22 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>34384636</v>
+        <v>33228455</v>
       </c>
       <c r="D13">
-        <v>50931135</v>
+        <v>49032787</v>
       </c>
       <c r="E13">
-        <v>-16546499</v>
+        <v>-15804332</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14">
         <f>SUM(E2:E13)</f>
-        <v>10495866</v>
+        <v>4730172</v>
       </c>
     </row>
   </sheetData>
